--- a/VersionRecords/Version3.1.2/版本Bug和特性计划及评审表v3.1.2_架构组.xlsx
+++ b/VersionRecords/Version3.1.2/版本Bug和特性计划及评审表v3.1.2_架构组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>No</t>
   </si>
@@ -95,10 +95,7 @@
     <t>周蓉</t>
   </si>
   <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>能</t>
+    <t>因为测试工作量关系延迟上线</t>
   </si>
   <si>
     <t>否</t>
@@ -111,6 +108,12 @@
   </si>
   <si>
     <t>余星赞</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
   <si>
     <t>统一用户模型</t>
@@ -169,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -231,14 +234,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -253,16 +248,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,14 +271,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,9 +303,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,15 +325,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -338,34 +358,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -389,7 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,19 +416,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,13 +482,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,85 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,17 +705,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,11 +731,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,11 +757,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,151 +768,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1025,10 +1028,10 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3 12" xfId="1"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="常规 9" xfId="3"/>
-    <cellStyle name="甘特图" xfId="4"/>
+    <cellStyle name="甘特图" xfId="1"/>
+    <cellStyle name="常规 9" xfId="2"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
@@ -1418,7 +1421,7 @@
   <dimension ref="A1:T215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1548,7 +1551,7 @@
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2" s="30"/>
       <c r="T2" s="31"/>
@@ -1558,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>20</v>
@@ -1580,27 +1583,27 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="N3" s="23">
         <v>42489</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S3" s="30"/>
       <c r="T3" s="31"/>
@@ -1610,13 +1613,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>22</v>
@@ -1632,27 +1635,27 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N4" s="23">
         <v>42489</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S4" s="30"/>
       <c r="T4" s="31"/>
@@ -1662,10 +1665,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>21</v>
@@ -1684,27 +1687,27 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N5" s="23">
         <v>42489</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
@@ -1714,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>20</v>
@@ -1736,27 +1739,27 @@
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N6" s="23">
         <v>42489</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
@@ -6127,28 +6130,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
